--- a/LEERFORMULAR.xlsx
+++ b/LEERFORMULAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\1.QM\4.Formulare\4.1 Formulare\aktuelle Formblätter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gschwendtner\PycharmProjects\MessKIpro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C8208CB-24D5-41F3-8339-CA571B35C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D4D0CD-D182-445C-8A1D-64522E4A6029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="2370" windowWidth="22695" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -238,9 +238,6 @@
     <t>Kässbohrer</t>
   </si>
   <si>
-    <t>Kunde:</t>
-  </si>
-  <si>
     <t>Pos.:</t>
   </si>
   <si>
@@ -452,6 +449,9 @@
   </si>
   <si>
     <t xml:space="preserve">Radius Lehre </t>
+  </si>
+  <si>
+    <t>Nr:</t>
   </si>
 </sst>
 </file>
@@ -1171,194 +1171,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1371,11 +1206,176 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1845,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="115" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15:R15"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,54 +1864,54 @@
   <sheetData>
     <row r="1" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="103"/>
+        <v>112</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="47"/>
       <c r="F1" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="106"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="51"/>
       <c r="K1" s="6"/>
       <c r="L1" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" s="22"/>
       <c r="N1" s="6"/>
       <c r="O1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="49"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="109"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
     </row>
     <row r="2" spans="2:25" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -1925,661 +1925,661 @@
       <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="2:25" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="75" t="s">
+      <c r="B3" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="81"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="97"/>
     </row>
     <row r="4" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="77" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="77" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="77" t="s">
+      <c r="H4" s="80"/>
+      <c r="I4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="69" t="s">
+      <c r="J4" s="90"/>
+      <c r="K4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="70"/>
-      <c r="O4" s="69" t="s">
+      <c r="N4" s="90"/>
+      <c r="O4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="69" t="s">
+      <c r="P4" s="90"/>
+      <c r="Q4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="70"/>
-      <c r="S4" s="69" t="s">
+      <c r="R4" s="90"/>
+      <c r="S4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="70"/>
-      <c r="U4" s="69" t="s">
+      <c r="T4" s="90"/>
+      <c r="U4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="70"/>
+      <c r="V4" s="90"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83"/>
-      <c r="C5" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="72"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="94"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="82"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="74"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="84"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="63" t="s">
+      <c r="B7" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="102"/>
+      <c r="E7" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="102"/>
+      <c r="G7" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="52" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="52" t="s">
+      <c r="J7" s="49"/>
+      <c r="K7" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="52" t="s">
+      <c r="L7" s="49"/>
+      <c r="M7" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="53"/>
-      <c r="M7" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="52" t="s">
+      <c r="N7" s="49"/>
+      <c r="O7" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="52" t="s">
+      <c r="R7" s="49"/>
+      <c r="S7" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="53"/>
-      <c r="S7" s="52" t="s">
+      <c r="T7" s="49"/>
+      <c r="U7" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="V7" s="53"/>
+      <c r="V7" s="49"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="2:25" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="56"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="50"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="50"/>
+      <c r="K8" s="67"/>
       <c r="L8" s="27"/>
-      <c r="M8" s="50"/>
+      <c r="M8" s="67"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="50"/>
+      <c r="O8" s="67"/>
       <c r="P8" s="25"/>
-      <c r="Q8" s="50"/>
+      <c r="Q8" s="67"/>
       <c r="R8" s="25"/>
-      <c r="S8" s="50"/>
+      <c r="S8" s="67"/>
       <c r="T8" s="25"/>
-      <c r="U8" s="88"/>
+      <c r="U8" s="72"/>
       <c r="V8" s="13"/>
-      <c r="W8" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="X8" s="97" t="s">
+      <c r="W8" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="Y8" s="98"/>
+      <c r="Y8" s="58"/>
     </row>
     <row r="9" spans="2:25" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="51"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="68"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="51"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="51"/>
+      <c r="M9" s="68"/>
       <c r="N9" s="26"/>
-      <c r="O9" s="51"/>
+      <c r="O9" s="68"/>
       <c r="P9" s="26"/>
-      <c r="Q9" s="51"/>
+      <c r="Q9" s="68"/>
       <c r="R9" s="26"/>
-      <c r="S9" s="51"/>
+      <c r="S9" s="68"/>
       <c r="T9" s="26"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="73"/>
       <c r="V9" s="14"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="110"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
     </row>
     <row r="10" spans="2:25" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="58"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="85"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="58"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="58"/>
+      <c r="K10" s="85"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="58"/>
+      <c r="M10" s="85"/>
       <c r="N10" s="18"/>
-      <c r="O10" s="58"/>
+      <c r="O10" s="85"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="59"/>
+      <c r="Q10" s="86"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="59"/>
+      <c r="S10" s="86"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="58"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="93" t="s">
+      <c r="W10" s="70"/>
+      <c r="X10" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y10" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="Y10" s="86" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="11" spans="2:25" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="51"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="68"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="51"/>
+      <c r="K11" s="68"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="51"/>
+      <c r="M11" s="68"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="51"/>
+      <c r="O11" s="68"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="60"/>
+      <c r="Q11" s="87"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="60"/>
+      <c r="S11" s="87"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="51"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="14"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="87"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="55"/>
     </row>
     <row r="12" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="47"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="66"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
     </row>
     <row r="13" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="42"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
       <c r="Y13" s="29"/>
     </row>
     <row r="14" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="43"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="42"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
       <c r="Y14" s="29"/>
     </row>
     <row r="15" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="24"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="42"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
       <c r="Y15" s="29"/>
     </row>
     <row r="16" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="24"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="43"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="42"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
     </row>
     <row r="17" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="43"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="42"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="30"/>
     </row>
     <row r="18" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="43"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="42"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="30"/>
     </row>
     <row r="19" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="43"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="42"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
       <c r="Y19" s="30"/>
     </row>
     <row r="20" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="43"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="42"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="30"/>
     </row>
     <row r="21" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="24"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="43"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="42"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="30"/>
     </row>
     <row r="22" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="24"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="43"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="42"/>
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
       <c r="Y22" s="31"/>
     </row>
     <row r="23" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="43"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="42"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="30"/>
     </row>
     <row r="24" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="43"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="42"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="30"/>
     </row>
     <row r="25" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="24"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="42"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="30"/>
@@ -2613,24 +2613,24 @@
     <row r="27" spans="2:25" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="str">
         <f>B1</f>
-        <v>Kunde:</v>
-      </c>
-      <c r="C27" s="104" t="str">
+        <v>Nr:</v>
+      </c>
+      <c r="C27" s="48" t="str">
         <f>C1</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D27" s="53"/>
+      <c r="D27" s="49"/>
       <c r="F27" s="1" t="str">
         <f>F1</f>
         <v>Auftrag:   AT-  25 /</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="104">
+      <c r="I27" s="48">
         <f>I1</f>
         <v>0</v>
       </c>
-      <c r="J27" s="53"/>
+      <c r="J27" s="49"/>
       <c r="K27" s="6"/>
       <c r="L27" s="1" t="str">
         <f>L1</f>
@@ -2649,676 +2649,676 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
-      <c r="W27" s="52" t="s">
+      <c r="W27" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="53"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="49"/>
     </row>
     <row r="28" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="77" t="s">
+      <c r="D28" s="80"/>
+      <c r="E28" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="78"/>
-      <c r="G28" s="77" t="s">
+      <c r="F28" s="80"/>
+      <c r="G28" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="78"/>
-      <c r="I28" s="77" t="s">
+      <c r="H28" s="80"/>
+      <c r="I28" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="78"/>
-      <c r="K28" s="77" t="s">
+      <c r="J28" s="80"/>
+      <c r="K28" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="78"/>
-      <c r="M28" s="77" t="s">
+      <c r="L28" s="80"/>
+      <c r="M28" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="N28" s="78"/>
-      <c r="O28" s="77" t="s">
+      <c r="N28" s="80"/>
+      <c r="O28" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="77" t="s">
+      <c r="P28" s="80"/>
+      <c r="Q28" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="R28" s="78"/>
-      <c r="S28" s="77" t="s">
+      <c r="R28" s="80"/>
+      <c r="S28" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="T28" s="78"/>
-      <c r="U28" s="77" t="s">
+      <c r="T28" s="80"/>
+      <c r="U28" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="V28" s="78"/>
+      <c r="V28" s="80"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="72"/>
-      <c r="K29" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29" s="72"/>
-      <c r="M29" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="N29" s="72"/>
-      <c r="O29" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="R29" s="72"/>
-      <c r="S29" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="T29" s="72"/>
-      <c r="U29" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="V29" s="72"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="82"/>
+      <c r="I29" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="82"/>
+      <c r="K29" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="82"/>
+      <c r="M29" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="N29" s="82"/>
+      <c r="O29" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="R29" s="82"/>
+      <c r="S29" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="T29" s="82"/>
+      <c r="U29" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="V29" s="82"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="74"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="84"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="52" t="s">
+      <c r="B31" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="49"/>
+      <c r="G31" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="49"/>
+      <c r="K31" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="M31" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="L31" s="53"/>
-      <c r="M31" s="52" t="s">
+      <c r="N31" s="49"/>
+      <c r="O31" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="N31" s="53"/>
-      <c r="O31" s="52" t="s">
+      <c r="P31" s="49"/>
+      <c r="Q31" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="52" t="s">
+      <c r="R31" s="49"/>
+      <c r="S31" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="R31" s="53"/>
-      <c r="S31" s="52" t="s">
+      <c r="T31" s="49"/>
+      <c r="U31" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="T31" s="53"/>
-      <c r="U31" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="V31" s="53"/>
+      <c r="V31" s="49"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
     <row r="32" spans="2:25" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
-      <c r="C32" s="88"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="90"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="90"/>
+      <c r="G32" s="74"/>
       <c r="H32" s="27"/>
-      <c r="I32" s="50"/>
+      <c r="I32" s="67"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="50"/>
+      <c r="K32" s="67"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="50"/>
+      <c r="M32" s="67"/>
       <c r="N32" s="16"/>
-      <c r="O32" s="50"/>
+      <c r="O32" s="67"/>
       <c r="P32" s="13"/>
-      <c r="Q32" s="50"/>
+      <c r="Q32" s="67"/>
       <c r="R32" s="13"/>
-      <c r="S32" s="50"/>
+      <c r="S32" s="67"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="90"/>
+      <c r="U32" s="74"/>
       <c r="V32" s="13"/>
-      <c r="W32" s="55" t="s">
+      <c r="W32" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="X32" s="97" t="s">
+      <c r="X32" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="Y32" s="98"/>
+      <c r="Y32" s="58"/>
     </row>
     <row r="33" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="57"/>
-      <c r="C33" s="89"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="91"/>
+      <c r="E33" s="75"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="91"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="51"/>
+      <c r="I33" s="68"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="51"/>
+      <c r="K33" s="68"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="51"/>
+      <c r="M33" s="68"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="51"/>
+      <c r="O33" s="68"/>
       <c r="P33" s="14"/>
-      <c r="Q33" s="51"/>
+      <c r="Q33" s="68"/>
       <c r="R33" s="14"/>
-      <c r="S33" s="54"/>
+      <c r="S33" s="107"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="92"/>
+      <c r="U33" s="78"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="99"/>
-      <c r="Y33" s="100"/>
+      <c r="W33" s="70"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="62"/>
     </row>
     <row r="34" spans="2:25" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="50"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="50"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="50"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="50"/>
+      <c r="K34" s="67"/>
       <c r="L34" s="18"/>
-      <c r="M34" s="50"/>
+      <c r="M34" s="67"/>
       <c r="N34" s="18"/>
-      <c r="O34" s="50"/>
+      <c r="O34" s="67"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="50"/>
+      <c r="Q34" s="67"/>
       <c r="R34" s="15"/>
-      <c r="S34" s="50"/>
+      <c r="S34" s="67"/>
       <c r="T34" s="15"/>
-      <c r="U34" s="50"/>
+      <c r="U34" s="67"/>
       <c r="V34" s="15"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="93" t="s">
+      <c r="W34" s="70"/>
+      <c r="X34" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y34" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="Y34" s="86" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="35" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="62"/>
-      <c r="C35" s="51"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="51"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="51"/>
+      <c r="G35" s="68"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="51"/>
+      <c r="I35" s="68"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="51"/>
+      <c r="K35" s="68"/>
       <c r="L35" s="17"/>
-      <c r="M35" s="51"/>
+      <c r="M35" s="68"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="51"/>
+      <c r="O35" s="68"/>
       <c r="P35" s="14"/>
-      <c r="Q35" s="51"/>
+      <c r="Q35" s="68"/>
       <c r="R35" s="14"/>
-      <c r="S35" s="51"/>
+      <c r="S35" s="68"/>
       <c r="T35" s="14"/>
-      <c r="U35" s="51"/>
+      <c r="U35" s="68"/>
       <c r="V35" s="14"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="87"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="55"/>
     </row>
     <row r="36" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="47"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="66"/>
       <c r="W36" s="29"/>
       <c r="X36" s="29"/>
       <c r="Y36" s="33"/>
     </row>
     <row r="37" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="43"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="42"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="30"/>
     </row>
     <row r="38" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="24"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="43"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="42"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
       <c r="Y38" s="30"/>
     </row>
     <row r="39" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="24"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="43"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="42"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="30"/>
     </row>
     <row r="40" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="24"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="43"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="42"/>
       <c r="W40" s="29"/>
       <c r="X40" s="29"/>
       <c r="Y40" s="33"/>
     </row>
     <row r="41" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="24"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="43"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="42"/>
       <c r="W41" s="29"/>
       <c r="X41" s="29"/>
       <c r="Y41" s="33"/>
     </row>
     <row r="42" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="24"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="43"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="42"/>
       <c r="W42" s="29"/>
       <c r="X42" s="29"/>
       <c r="Y42" s="33"/>
     </row>
     <row r="43" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="24"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="43"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="42"/>
       <c r="W43" s="29"/>
       <c r="X43" s="29"/>
       <c r="Y43" s="33"/>
     </row>
     <row r="44" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="24"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="43"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="42"/>
       <c r="W44" s="29"/>
       <c r="X44" s="29"/>
       <c r="Y44" s="33"/>
     </row>
     <row r="45" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="24"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="43"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="42"/>
       <c r="W45" s="29"/>
       <c r="X45" s="29"/>
       <c r="Y45" s="33"/>
     </row>
     <row r="46" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="24"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="43"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="42"/>
       <c r="W46" s="35"/>
       <c r="X46" s="35"/>
       <c r="Y46" s="30"/>
     </row>
     <row r="47" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="24"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="43"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="42"/>
       <c r="W47" s="35"/>
       <c r="X47" s="35"/>
       <c r="Y47" s="30"/>
     </row>
     <row r="48" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="24"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="43"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="42"/>
       <c r="W48" s="35"/>
       <c r="X48" s="35"/>
       <c r="Y48" s="30"/>
     </row>
     <row r="49" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="24"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="43"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="42"/>
       <c r="W49" s="35"/>
       <c r="X49" s="35"/>
       <c r="Y49" s="30"/>
     </row>
     <row r="50" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="24"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="43"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="42"/>
       <c r="W50" s="36"/>
       <c r="X50" s="35"/>
       <c r="Y50" s="30"/>
@@ -3339,8 +3339,8 @@
       <c r="N51" s="45"/>
       <c r="O51" s="44"/>
       <c r="P51" s="45"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="43"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="42"/>
       <c r="S51" s="44"/>
       <c r="T51" s="45"/>
       <c r="U51" s="44"/>
@@ -3350,172 +3350,172 @@
       <c r="Y51" s="34"/>
     </row>
     <row r="52" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="108"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="108"/>
-      <c r="S52" s="108"/>
-      <c r="T52" s="108"/>
-      <c r="U52" s="108"/>
-      <c r="V52" s="108"/>
-      <c r="W52" s="108"/>
-      <c r="X52" s="108"/>
-      <c r="Y52" s="108"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="53"/>
+      <c r="S52" s="53"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="53"/>
+      <c r="W52" s="53"/>
+      <c r="X52" s="53"/>
+      <c r="Y52" s="53"/>
     </row>
     <row r="53" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="107"/>
-      <c r="M53" s="107"/>
-      <c r="N53" s="107"/>
-      <c r="O53" s="107"/>
-      <c r="P53" s="107"/>
-      <c r="Q53" s="107"/>
-      <c r="R53" s="107"/>
-      <c r="S53" s="107"/>
-      <c r="T53" s="107"/>
-      <c r="U53" s="107"/>
-      <c r="V53" s="107"/>
-      <c r="W53" s="107"/>
-      <c r="X53" s="107"/>
-      <c r="Y53" s="107"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+      <c r="R53" s="52"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="52"/>
+      <c r="U53" s="52"/>
+      <c r="V53" s="52"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
     </row>
     <row r="54" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="107" t="s">
+      <c r="B54" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
-      <c r="K54" s="107"/>
-      <c r="L54" s="107"/>
-      <c r="M54" s="107"/>
-      <c r="N54" s="107"/>
-      <c r="O54" s="107"/>
-      <c r="P54" s="107"/>
-      <c r="Q54" s="107"/>
-      <c r="R54" s="107"/>
-      <c r="S54" s="107"/>
-      <c r="T54" s="107"/>
-      <c r="U54" s="107"/>
-      <c r="V54" s="107"/>
-      <c r="W54" s="107"/>
-      <c r="X54" s="107"/>
-      <c r="Y54" s="107"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
     </row>
     <row r="55" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="107"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="107"/>
-      <c r="K55" s="107"/>
-      <c r="L55" s="107"/>
-      <c r="M55" s="107"/>
-      <c r="N55" s="107"/>
-      <c r="O55" s="107"/>
-      <c r="P55" s="107"/>
-      <c r="Q55" s="107"/>
-      <c r="R55" s="107"/>
-      <c r="S55" s="107"/>
-      <c r="T55" s="107"/>
-      <c r="U55" s="107"/>
-      <c r="V55" s="107"/>
-      <c r="W55" s="107"/>
-      <c r="X55" s="107"/>
-      <c r="Y55" s="107"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
+      <c r="O55" s="52"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
+      <c r="R55" s="52"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="52"/>
+      <c r="U55" s="52"/>
+      <c r="V55" s="52"/>
+      <c r="W55" s="52"/>
+      <c r="X55" s="52"/>
+      <c r="Y55" s="52"/>
     </row>
     <row r="56" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="101" t="s">
+      <c r="B56" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
-      <c r="L56" s="101"/>
-      <c r="M56" s="101"/>
-      <c r="N56" s="101"/>
-      <c r="O56" s="101"/>
-      <c r="P56" s="101"/>
-      <c r="Q56" s="101"/>
-      <c r="R56" s="101"/>
-      <c r="S56" s="101"/>
-      <c r="T56" s="101"/>
-      <c r="U56" s="101"/>
-      <c r="V56" s="101"/>
-      <c r="W56" s="101"/>
-      <c r="X56" s="101"/>
-      <c r="Y56" s="101"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="43"/>
     </row>
     <row r="57" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101"/>
-      <c r="L57" s="101"/>
-      <c r="M57" s="101"/>
-      <c r="N57" s="101"/>
-      <c r="O57" s="101"/>
-      <c r="P57" s="101"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="101"/>
-      <c r="S57" s="101"/>
-      <c r="T57" s="101"/>
-      <c r="U57" s="101"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
-      <c r="X57" s="101"/>
-      <c r="Y57" s="101"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
     </row>
     <row r="58" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3523,6 +3523,419 @@
     <row r="61" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="437">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="E7:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="F3:Y3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W8:W11"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="O29:P30"/>
+    <mergeCell ref="U29:V30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="W32:W35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="X32:Y33"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="Q42:R42"/>
     <mergeCell ref="Q50:R50"/>
     <mergeCell ref="Q51:R51"/>
     <mergeCell ref="B57:Y57"/>
@@ -3547,419 +3960,6 @@
     <mergeCell ref="Q47:R47"/>
     <mergeCell ref="Q48:R48"/>
     <mergeCell ref="X8:Y9"/>
-    <mergeCell ref="X32:Y33"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="W32:W35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="M29:N30"/>
-    <mergeCell ref="O29:P30"/>
-    <mergeCell ref="U29:V30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R30"/>
-    <mergeCell ref="S29:T30"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W8:W11"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="F3:Y3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="E7:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3973,7 +3973,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F3F01F57-A70D-4836-A032-C52150F55CF4}">
           <x14:formula1>
             <xm:f>Tabelle2!$A$1:$A$31</xm:f>
@@ -4014,10 +4014,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4025,7 +4025,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4033,12 +4033,12 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -4062,18 +4062,18 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4081,7 +4081,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4089,20 +4089,20 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
         <v>29</v>
@@ -4110,23 +4110,23 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
         <v>30</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
@@ -4153,15 +4153,15 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4182,15 +4182,15 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
         <v>40</v>
@@ -4201,12 +4201,12 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4216,12 +4216,12 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -4231,27 +4231,27 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
@@ -4261,27 +4261,27 @@
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.25">
@@ -4291,12 +4291,12 @@
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.25">
@@ -4306,7 +4306,7 @@
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/LEERFORMULAR.xlsx
+++ b/LEERFORMULAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gschwendtner\PycharmProjects\MessKIpro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasanovic\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D4D0CD-D182-445C-8A1D-64522E4A6029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574332E6-CB96-490C-A111-E2212A482F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2370" windowWidth="22695" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tabelle2!$F$1:$F$56</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -385,9 +376,6 @@
     <t>Oberflächenbehandlung:</t>
   </si>
   <si>
-    <t>Auftrag:   AT-  25 /</t>
-  </si>
-  <si>
     <t>KI Automation</t>
   </si>
   <si>
@@ -452,6 +440,9 @@
   </si>
   <si>
     <t>Nr:</t>
+  </si>
+  <si>
+    <t>Auftrag:</t>
   </si>
 </sst>
 </file>
@@ -1171,29 +1162,194 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1206,176 +1362,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1846,7 +1837,7 @@
   <dimension ref="B1:Y61"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:Y3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,19 +1855,19 @@
   <sheetData>
     <row r="1" spans="2:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="103"/>
+      <c r="F1" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="F1" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="106"/>
       <c r="K1" s="6"/>
       <c r="L1" s="20" t="s">
         <v>41</v>
@@ -1886,32 +1877,32 @@
       <c r="O1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="109"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49"/>
       <c r="R1" s="12"/>
       <c r="S1" s="12"/>
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
     </row>
     <row r="2" spans="2:25" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -1925,37 +1916,37 @@
       <c r="Y2" s="5"/>
     </row>
     <row r="3" spans="2:25" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="91" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="97"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="83"/>
     </row>
     <row r="4" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="98"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="79" t="s">
         <v>6</v>
       </c>
@@ -1971,615 +1962,615 @@
       <c r="I4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="89" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="90"/>
-      <c r="M4" s="89" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="89" t="s">
+      <c r="N4" s="72"/>
+      <c r="O4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="89" t="s">
+      <c r="P4" s="72"/>
+      <c r="Q4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="90"/>
-      <c r="S4" s="89" t="s">
+      <c r="R4" s="72"/>
+      <c r="S4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="90"/>
-      <c r="U4" s="89" t="s">
+      <c r="T4" s="72"/>
+      <c r="U4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="90"/>
+      <c r="V4" s="72"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="99"/>
-      <c r="C5" s="93" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="93" t="s">
+      <c r="D5" s="82"/>
+      <c r="E5" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="100"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="84"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="76"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="101" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="56" t="s">
+      <c r="F7" s="64"/>
+      <c r="G7" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="56" t="s">
+      <c r="H7" s="53"/>
+      <c r="I7" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="56" t="s">
+      <c r="J7" s="53"/>
+      <c r="K7" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="56" t="s">
+      <c r="L7" s="53"/>
+      <c r="M7" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="49"/>
-      <c r="O7" s="56" t="s">
+      <c r="N7" s="53"/>
+      <c r="O7" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="56" t="s">
+      <c r="P7" s="53"/>
+      <c r="Q7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="49"/>
-      <c r="S7" s="56" t="s">
+      <c r="R7" s="53"/>
+      <c r="S7" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="T7" s="49"/>
-      <c r="U7" s="56" t="s">
+      <c r="T7" s="53"/>
+      <c r="U7" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="V7" s="49"/>
+      <c r="V7" s="53"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="2:25" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="70"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="67"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="67"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="67"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="27"/>
-      <c r="M8" s="67"/>
+      <c r="M8" s="50"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="67"/>
+      <c r="O8" s="50"/>
       <c r="P8" s="25"/>
-      <c r="Q8" s="67"/>
+      <c r="Q8" s="50"/>
       <c r="R8" s="25"/>
-      <c r="S8" s="67"/>
+      <c r="S8" s="50"/>
       <c r="T8" s="25"/>
-      <c r="U8" s="72"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="13"/>
-      <c r="W8" s="69" t="s">
+      <c r="W8" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="X8" s="57" t="s">
+      <c r="X8" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="Y8" s="58"/>
+      <c r="Y8" s="98"/>
     </row>
     <row r="9" spans="2:25" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="26"/>
-      <c r="I9" s="68"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="26"/>
-      <c r="K9" s="68"/>
+      <c r="K9" s="51"/>
       <c r="L9" s="28"/>
-      <c r="M9" s="68"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="26"/>
-      <c r="O9" s="68"/>
+      <c r="O9" s="51"/>
       <c r="P9" s="26"/>
-      <c r="Q9" s="68"/>
+      <c r="Q9" s="51"/>
       <c r="R9" s="26"/>
-      <c r="S9" s="68"/>
+      <c r="S9" s="51"/>
       <c r="T9" s="26"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="91"/>
       <c r="V9" s="14"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="110"/>
     </row>
     <row r="10" spans="2:25" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="85"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="85"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="85"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="85"/>
+      <c r="M10" s="58"/>
       <c r="N10" s="18"/>
-      <c r="O10" s="85"/>
+      <c r="O10" s="58"/>
       <c r="P10" s="15"/>
-      <c r="Q10" s="86"/>
+      <c r="Q10" s="59"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="86"/>
+      <c r="S10" s="59"/>
       <c r="T10" s="15"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="58"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="63" t="s">
+      <c r="W10" s="56"/>
+      <c r="X10" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="Y10" s="54" t="s">
+      <c r="Y10" s="88" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="68"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="51"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="68"/>
+      <c r="I11" s="51"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="68"/>
+      <c r="K11" s="51"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="68"/>
+      <c r="M11" s="51"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="68"/>
+      <c r="O11" s="51"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="87"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="14"/>
-      <c r="S11" s="87"/>
+      <c r="S11" s="60"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="51"/>
       <c r="V11" s="14"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="55"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="89"/>
     </row>
     <row r="12" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="66"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="47"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
       <c r="Y12" s="29"/>
     </row>
     <row r="13" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="24"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="43"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
       <c r="Y13" s="29"/>
     </row>
     <row r="14" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="24"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="43"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
       <c r="Y14" s="29"/>
     </row>
     <row r="15" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="24"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="43"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
       <c r="Y15" s="29"/>
     </row>
     <row r="16" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="24"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="43"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
       <c r="Y16" s="29"/>
     </row>
     <row r="17" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="43"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="30"/>
     </row>
     <row r="18" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="43"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="30"/>
     </row>
     <row r="19" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="43"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
       <c r="Y19" s="30"/>
     </row>
     <row r="20" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="43"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="30"/>
     </row>
     <row r="21" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="24"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="43"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="30"/>
     </row>
     <row r="22" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="24"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="43"/>
       <c r="W22" s="38"/>
       <c r="X22" s="38"/>
       <c r="Y22" s="31"/>
     </row>
     <row r="23" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="43"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="30"/>
     </row>
     <row r="24" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="43"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="30"/>
     </row>
     <row r="25" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="24"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="43"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="30"/>
@@ -2615,22 +2606,22 @@
         <f>B1</f>
         <v>Nr:</v>
       </c>
-      <c r="C27" s="48" t="str">
+      <c r="C27" s="104" t="str">
         <f>C1</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D27" s="49"/>
+      <c r="D27" s="53"/>
       <c r="F27" s="1" t="str">
         <f>F1</f>
-        <v>Auftrag:   AT-  25 /</v>
+        <v>Auftrag:</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="48">
+      <c r="I27" s="104">
         <f>I1</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="6"/>
       <c r="L27" s="1" t="str">
         <f>L1</f>
@@ -2649,11 +2640,11 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
-      <c r="W27" s="56" t="s">
+      <c r="W27" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="49"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="53"/>
     </row>
     <row r="28" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
@@ -2703,622 +2694,622 @@
     </row>
     <row r="29" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="81" t="s">
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="82"/>
-      <c r="I29" s="81" t="s">
+      <c r="H29" s="74"/>
+      <c r="I29" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="82"/>
-      <c r="K29" s="81" t="s">
+      <c r="J29" s="74"/>
+      <c r="K29" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="L29" s="82"/>
-      <c r="M29" s="81" t="s">
+      <c r="L29" s="74"/>
+      <c r="M29" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="N29" s="82"/>
-      <c r="O29" s="81" t="s">
+      <c r="N29" s="74"/>
+      <c r="O29" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="81" t="s">
+      <c r="P29" s="74"/>
+      <c r="Q29" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="R29" s="82"/>
-      <c r="S29" s="81" t="s">
+      <c r="R29" s="74"/>
+      <c r="S29" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="T29" s="82"/>
-      <c r="U29" s="81" t="s">
+      <c r="T29" s="74"/>
+      <c r="U29" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="V29" s="82"/>
+      <c r="V29" s="74"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="84"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="76"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="76"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="56" t="s">
+      <c r="D31" s="53"/>
+      <c r="E31" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="56" t="s">
+      <c r="F31" s="53"/>
+      <c r="G31" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="56" t="s">
+      <c r="H31" s="53"/>
+      <c r="I31" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="49"/>
-      <c r="K31" s="56" t="s">
+      <c r="J31" s="53"/>
+      <c r="K31" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="56" t="s">
+      <c r="L31" s="53"/>
+      <c r="M31" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="N31" s="49"/>
-      <c r="O31" s="56" t="s">
+      <c r="N31" s="53"/>
+      <c r="O31" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="56" t="s">
+      <c r="P31" s="53"/>
+      <c r="Q31" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="R31" s="49"/>
-      <c r="S31" s="56" t="s">
+      <c r="R31" s="53"/>
+      <c r="S31" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="T31" s="49"/>
-      <c r="U31" s="56" t="s">
+      <c r="T31" s="53"/>
+      <c r="U31" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="V31" s="49"/>
+      <c r="V31" s="53"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
     <row r="32" spans="2:25" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="70"/>
-      <c r="C32" s="72"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="25"/>
-      <c r="E32" s="74"/>
+      <c r="E32" s="94"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="74"/>
+      <c r="G32" s="94"/>
       <c r="H32" s="27"/>
-      <c r="I32" s="67"/>
+      <c r="I32" s="50"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="67"/>
+      <c r="K32" s="50"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="67"/>
+      <c r="M32" s="50"/>
       <c r="N32" s="16"/>
-      <c r="O32" s="67"/>
+      <c r="O32" s="50"/>
       <c r="P32" s="13"/>
-      <c r="Q32" s="67"/>
+      <c r="Q32" s="50"/>
       <c r="R32" s="13"/>
-      <c r="S32" s="67"/>
+      <c r="S32" s="50"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="74"/>
+      <c r="U32" s="94"/>
       <c r="V32" s="13"/>
-      <c r="W32" s="69" t="s">
+      <c r="W32" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="X32" s="57" t="s">
+      <c r="X32" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="Y32" s="58"/>
+      <c r="Y32" s="98"/>
     </row>
     <row r="33" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="71"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="75"/>
+      <c r="E33" s="95"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="75"/>
+      <c r="G33" s="95"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="68"/>
+      <c r="I33" s="51"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="68"/>
+      <c r="K33" s="51"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="68"/>
+      <c r="M33" s="51"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="68"/>
+      <c r="O33" s="51"/>
       <c r="P33" s="14"/>
-      <c r="Q33" s="68"/>
+      <c r="Q33" s="51"/>
       <c r="R33" s="14"/>
-      <c r="S33" s="107"/>
+      <c r="S33" s="54"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="78"/>
+      <c r="U33" s="96"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="70"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="62"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="99"/>
+      <c r="Y33" s="100"/>
     </row>
     <row r="34" spans="2:25" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="67"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="67"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="67"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="67"/>
+      <c r="I34" s="50"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="67"/>
+      <c r="K34" s="50"/>
       <c r="L34" s="18"/>
-      <c r="M34" s="67"/>
+      <c r="M34" s="50"/>
       <c r="N34" s="18"/>
-      <c r="O34" s="67"/>
+      <c r="O34" s="50"/>
       <c r="P34" s="15"/>
-      <c r="Q34" s="67"/>
+      <c r="Q34" s="50"/>
       <c r="R34" s="15"/>
-      <c r="S34" s="67"/>
+      <c r="S34" s="50"/>
       <c r="T34" s="15"/>
-      <c r="U34" s="67"/>
+      <c r="U34" s="50"/>
       <c r="V34" s="15"/>
-      <c r="W34" s="70"/>
-      <c r="X34" s="63" t="s">
+      <c r="W34" s="56"/>
+      <c r="X34" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="Y34" s="54" t="s">
+      <c r="Y34" s="88" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="77"/>
-      <c r="C35" s="68"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="68"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="68"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="68"/>
+      <c r="I35" s="51"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="68"/>
+      <c r="K35" s="51"/>
       <c r="L35" s="17"/>
-      <c r="M35" s="68"/>
+      <c r="M35" s="51"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="68"/>
+      <c r="O35" s="51"/>
       <c r="P35" s="14"/>
-      <c r="Q35" s="68"/>
+      <c r="Q35" s="51"/>
       <c r="R35" s="14"/>
-      <c r="S35" s="68"/>
+      <c r="S35" s="51"/>
       <c r="T35" s="14"/>
-      <c r="U35" s="68"/>
+      <c r="U35" s="51"/>
       <c r="V35" s="14"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="64"/>
-      <c r="Y35" s="55"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="89"/>
     </row>
     <row r="36" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="66"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="66"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="47"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="47"/>
       <c r="W36" s="29"/>
       <c r="X36" s="29"/>
       <c r="Y36" s="33"/>
     </row>
     <row r="37" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="24"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="43"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="30"/>
     </row>
     <row r="38" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="24"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="43"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
       <c r="Y38" s="30"/>
     </row>
     <row r="39" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="24"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="43"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="30"/>
     </row>
     <row r="40" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="24"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="43"/>
       <c r="W40" s="29"/>
       <c r="X40" s="29"/>
       <c r="Y40" s="33"/>
     </row>
     <row r="41" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="24"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="43"/>
       <c r="W41" s="29"/>
       <c r="X41" s="29"/>
       <c r="Y41" s="33"/>
     </row>
     <row r="42" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="24"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="43"/>
       <c r="W42" s="29"/>
       <c r="X42" s="29"/>
       <c r="Y42" s="33"/>
     </row>
     <row r="43" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="24"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="41"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="41"/>
-      <c r="V43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="43"/>
       <c r="W43" s="29"/>
       <c r="X43" s="29"/>
       <c r="Y43" s="33"/>
     </row>
     <row r="44" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="24"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="43"/>
       <c r="W44" s="29"/>
       <c r="X44" s="29"/>
       <c r="Y44" s="33"/>
     </row>
     <row r="45" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="24"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="41"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="41"/>
-      <c r="V45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="43"/>
       <c r="W45" s="29"/>
       <c r="X45" s="29"/>
       <c r="Y45" s="33"/>
     </row>
     <row r="46" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="24"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="41"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="41"/>
-      <c r="V46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="43"/>
       <c r="W46" s="35"/>
       <c r="X46" s="35"/>
       <c r="Y46" s="30"/>
     </row>
     <row r="47" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="24"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="41"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="41"/>
-      <c r="V47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="43"/>
       <c r="W47" s="35"/>
       <c r="X47" s="35"/>
       <c r="Y47" s="30"/>
     </row>
     <row r="48" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="24"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="43"/>
       <c r="W48" s="35"/>
       <c r="X48" s="35"/>
       <c r="Y48" s="30"/>
     </row>
     <row r="49" spans="2:25" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="24"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="41"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="41"/>
-      <c r="V49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="43"/>
       <c r="W49" s="35"/>
       <c r="X49" s="35"/>
       <c r="Y49" s="30"/>
     </row>
     <row r="50" spans="2:25" ht="16.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="24"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="41"/>
-      <c r="V50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="43"/>
       <c r="W50" s="36"/>
       <c r="X50" s="35"/>
       <c r="Y50" s="30"/>
@@ -3339,8 +3330,8 @@
       <c r="N51" s="45"/>
       <c r="O51" s="44"/>
       <c r="P51" s="45"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="43"/>
       <c r="S51" s="44"/>
       <c r="T51" s="45"/>
       <c r="U51" s="44"/>
@@ -3350,172 +3341,172 @@
       <c r="Y51" s="34"/>
     </row>
     <row r="52" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
-      <c r="V52" s="53"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
-      <c r="Y52" s="53"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="108"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
+      <c r="V52" s="108"/>
+      <c r="W52" s="108"/>
+      <c r="X52" s="108"/>
+      <c r="Y52" s="108"/>
     </row>
     <row r="53" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
-      <c r="T53" s="52"/>
-      <c r="U53" s="52"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="107"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="107"/>
+      <c r="P53" s="107"/>
+      <c r="Q53" s="107"/>
+      <c r="R53" s="107"/>
+      <c r="S53" s="107"/>
+      <c r="T53" s="107"/>
+      <c r="U53" s="107"/>
+      <c r="V53" s="107"/>
+      <c r="W53" s="107"/>
+      <c r="X53" s="107"/>
+      <c r="Y53" s="107"/>
     </row>
     <row r="54" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
-      <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
+      <c r="K54" s="107"/>
+      <c r="L54" s="107"/>
+      <c r="M54" s="107"/>
+      <c r="N54" s="107"/>
+      <c r="O54" s="107"/>
+      <c r="P54" s="107"/>
+      <c r="Q54" s="107"/>
+      <c r="R54" s="107"/>
+      <c r="S54" s="107"/>
+      <c r="T54" s="107"/>
+      <c r="U54" s="107"/>
+      <c r="V54" s="107"/>
+      <c r="W54" s="107"/>
+      <c r="X54" s="107"/>
+      <c r="Y54" s="107"/>
     </row>
     <row r="55" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
-      <c r="T55" s="52"/>
-      <c r="U55" s="52"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="52"/>
-      <c r="X55" s="52"/>
-      <c r="Y55" s="52"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="107"/>
+      <c r="L55" s="107"/>
+      <c r="M55" s="107"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="107"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="107"/>
+      <c r="R55" s="107"/>
+      <c r="S55" s="107"/>
+      <c r="T55" s="107"/>
+      <c r="U55" s="107"/>
+      <c r="V55" s="107"/>
+      <c r="W55" s="107"/>
+      <c r="X55" s="107"/>
+      <c r="Y55" s="107"/>
     </row>
     <row r="56" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="43"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="101"/>
+      <c r="M56" s="101"/>
+      <c r="N56" s="101"/>
+      <c r="O56" s="101"/>
+      <c r="P56" s="101"/>
+      <c r="Q56" s="101"/>
+      <c r="R56" s="101"/>
+      <c r="S56" s="101"/>
+      <c r="T56" s="101"/>
+      <c r="U56" s="101"/>
+      <c r="V56" s="101"/>
+      <c r="W56" s="101"/>
+      <c r="X56" s="101"/>
+      <c r="Y56" s="101"/>
     </row>
     <row r="57" spans="2:25" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
-      <c r="W57" s="43"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="43"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="101"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="101"/>
+      <c r="P57" s="101"/>
+      <c r="Q57" s="101"/>
+      <c r="R57" s="101"/>
+      <c r="S57" s="101"/>
+      <c r="T57" s="101"/>
+      <c r="U57" s="101"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
+      <c r="X57" s="101"/>
+      <c r="Y57" s="101"/>
     </row>
     <row r="58" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3523,6 +3514,419 @@
     <row r="61" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="437">
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="B57:Y57"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B56:Y56"/>
+    <mergeCell ref="B55:Y55"/>
+    <mergeCell ref="B54:Y54"/>
+    <mergeCell ref="B53:Y53"/>
+    <mergeCell ref="B52:Y52"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="X8:Y9"/>
+    <mergeCell ref="X32:Y33"/>
+    <mergeCell ref="X34:X35"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="W32:W35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:H30"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K29:L30"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="O29:P30"/>
+    <mergeCell ref="U29:V30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q29:R30"/>
+    <mergeCell ref="S29:T30"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W8:W11"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="F3:Y3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C7:D9"/>
+    <mergeCell ref="E7:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="K51:L51"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="U38:V38"/>
     <mergeCell ref="C39:D39"/>
@@ -3547,419 +3951,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C7:D9"/>
-    <mergeCell ref="E7:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="F3:Y3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W8:W11"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:H30"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="M29:N30"/>
-    <mergeCell ref="O29:P30"/>
-    <mergeCell ref="U29:V30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q29:R30"/>
-    <mergeCell ref="S29:T30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="W32:W35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="X32:Y33"/>
-    <mergeCell ref="X34:X35"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="B57:Y57"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B56:Y56"/>
-    <mergeCell ref="B55:Y55"/>
-    <mergeCell ref="B54:Y54"/>
-    <mergeCell ref="B53:Y53"/>
-    <mergeCell ref="B52:Y52"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="X8:Y9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3973,7 +3964,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F3F01F57-A70D-4836-A032-C52150F55CF4}">
           <x14:formula1>
             <xm:f>Tabelle2!$A$1:$A$31</xm:f>
@@ -4014,7 +4005,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
         <v>67</v>
@@ -4025,7 +4016,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4062,10 +4053,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4073,7 +4064,7 @@
         <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4081,7 +4072,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4089,7 +4080,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4097,7 +4088,7 @@
         <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4110,7 +4101,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -4118,7 +4109,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
         <v>65</v>
@@ -4142,7 +4133,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
@@ -4153,7 +4144,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4161,7 +4152,7 @@
         <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4190,7 +4181,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
         <v>40</v>
@@ -4201,12 +4192,12 @@
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4231,17 +4222,17 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
@@ -4271,7 +4262,7 @@
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.25">
@@ -4296,7 +4287,7 @@
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.25">
